--- a/biology/Zoologie/C'est_pas_drôle_d'être_un_oiseau/C'est_pas_drôle_d'être_un_oiseau.xlsx
+++ b/biology/Zoologie/C'est_pas_drôle_d'être_un_oiseau/C'est_pas_drôle_d'être_un_oiseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%27est_pas_dr%C3%B4le_d%27%C3%AAtre_un_oiseau</t>
+          <t>C'est_pas_drôle_d'être_un_oiseau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est pas drôle d'être un oiseau (It's Tough to Be a Bird) est un court métrage réalisé en 1969 par les studios Disney.
-Le film a été diffusé dans l'émission The Wonderful World of Disney le 13 décembre 1970 sur NBC[1].
+Le film a été diffusé dans l'émission The Wonderful World of Disney le 13 décembre 1970 sur NBC.
 C'est le dernier court métrage d'animation produit par Walt Disney Animation Studios à recevoir l'Oscar du meilleur court métrage d'animation avant Paperman en 2013.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%27est_pas_dr%C3%B4le_d%27%C3%AAtre_un_oiseau</t>
+          <t>C'est_pas_drôle_d'être_un_oiseau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le personnage principal, un petit oiseau rouge, explique l'évolution de l'oiseau (avec une énumération de termes scientifiques). Il évoque également l'influence qu'ont les oiseaux à l'égard des hommes, incapables de voler; il montre ainsi que les oiseaux ont largement contribué à la culture humaine (par exemple, dans les hiéroglyphes, on remarque une présence, hyperbolique sans doute, des oiseaux.), bien que les hommes, justement, souhaitent souvent les tuer. Les parcs naturels montrés à la fin du moyen-métrage montrent la passion des hommes pour les oiseaux.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%27est_pas_dr%C3%B4le_d%27%C3%AAtre_un_oiseau</t>
+          <t>C'est_pas_drôle_d'être_un_oiseau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : It's Tough to Be a Bird
 Titre français : C'est pas drôle d'être un oiseau
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%27est_pas_dr%C3%B4le_d%27%C3%AAtre_un_oiseau</t>
+          <t>C'est_pas_drôle_d'être_un_oiseau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ruth Buzzi : Soprano
 Richard Bakalyan  (VF : Jacques Dynam) : Narrateur
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%27est_pas_dr%C3%B4le_d%27%C3%AAtre_un_oiseau</t>
+          <t>C'est_pas_drôle_d'être_un_oiseau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film a été lauréat de l'Oscar du meilleur court métrage d'animation de 1970.
 </t>
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%27est_pas_dr%C3%B4le_d%27%C3%AAtre_un_oiseau</t>
+          <t>C'est_pas_drôle_d'être_un_oiseau</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce court métrage mélange les prises de vues réelles avec l'animation.
 Bien qu'il y ait de l'animation, on peut considérer ce court-métrage principalement comme un documentaire (rôle didactique important).
